--- a/ResultsAna.xlsx
+++ b/ResultsAna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E0AFB0-B98C-46C5-9843-73874E37479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4181C89F-86BF-48BB-9B89-D458ABCD7AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2094,6 +2094,1522 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case1_400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10.955940650000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.82863611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9549375500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.66421946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6746809099999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.44276773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.628795480000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5128709800000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2843048499999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2118141799999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6636489599999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.07851071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.58810025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.396843609999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3249616300000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.023081439999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.785747950000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.36980161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.219486570000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.49074726</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.70972235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.57761503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3334103299999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1103909600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1841-49BA-A9CD-408806D47BA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="400404784"/>
+        <c:axId val="400403952"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Urates_Period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1841-49BA-A9CD-408806D47BA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="257240224"/>
+        <c:axId val="257238560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="400404784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400403952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="400403952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400404784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="257238560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257240224"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="257240224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="257238560"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Case1_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.826391490000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.76805291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1092209799999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.908633910000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.84592561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.138182949999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.65839416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.33984937</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3628793199999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.890543320000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.313256590000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8990291100000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.193776880000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.46367034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.3343062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.534126109999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.7089253700000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.083779890000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.359064010000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.405972240000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.77333514</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.374352569999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.345818299999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.27514884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EE9-437F-B01F-94819C78A148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508569024"/>
+        <c:axId val="508568608"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Urates_Period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EE9-437F-B01F-94819C78A148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506154944"/>
+        <c:axId val="411593904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508569024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508568608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508568608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508569024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411593904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506154944"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506154944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="411593904"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2174,6 +3690,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2691,6 +4287,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3246,16 +5874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>384174</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>136526</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3275,6 +5903,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>479424</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3898F8ED-2E72-4954-87E6-56D1FE35DC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>441324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>298449</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07898E3-1401-40B2-BA81-254CEC385347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3549,7 +6249,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A25 C1:F25"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ResultsAna.xlsx
+++ b/ResultsAna.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4181C89F-86BF-48BB-9B89-D458ABCD7AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEADEBB-77EE-4D38-B0AF-D8F3DDE253D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Case1_400</t>
   </si>
@@ -50,6 +51,108 @@
   <si>
     <t>Case1_30_dspace</t>
   </si>
+  <si>
+    <t>Case_g20_p500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  01:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  02:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  03:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  04:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  05:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  06:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  07:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  08:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  09:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  10:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  11:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  12:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  13:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  14:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  15:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  16:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  17:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  18:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  19:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  20:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  22:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  23:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/01  24:00:00</t>
+  </si>
+  <si>
+    <t>ZMAT</t>
+  </si>
+  <si>
+    <t>EnergyCost</t>
+  </si>
+  <si>
+    <t>Utility Rate</t>
+  </si>
+  <si>
+    <t>Rad Inlet Water Temp</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>PCM state</t>
+  </si>
+  <si>
+    <t>PCM temp</t>
+  </si>
+  <si>
+    <t>Freezing Temp</t>
+  </si>
+  <si>
+    <t>Melting</t>
+  </si>
 </sst>
 </file>
 
@@ -58,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +169,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -83,18 +486,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2767,6 +3360,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="257238560"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3525,6 +4119,3753 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="411593904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EnergyCost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5664.42623853851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7664.4533020809604</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8115.2285016776796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2325.7949258650401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>993.33744725327199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9360.1043885549407</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8115.2285016776796</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6231.7938951084498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7466.3684775962402</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64A9-40C8-9C4E-2734B455EEE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1541383120"/>
+        <c:axId val="1541384368"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utility Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64A9-40C8-9C4E-2734B455EEE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1306893248"/>
+        <c:axId val="1306888672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1541383120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541384368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1541384368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541383120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1306888672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1306893248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1306893248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1306888672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rad Inlet Water Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10.955940650000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.82863611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9549375500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.66421946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6746809099999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.44276773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.628795480000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5128709800000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2843048499999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2118141799999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6636489599999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.07851071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.58810025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.396843609999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3249616300000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.023081439999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.785747950000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.36980161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.219486570000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.49074726</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.70972235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.57761503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3334103299999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1103909600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B4D-475F-B3EE-88681A7E882E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1638458080"/>
+        <c:axId val="1638458496"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utility Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B4D-475F-B3EE-88681A7E882E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1299615376"/>
+        <c:axId val="1299618704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1638458080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638458496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1638458496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1638458080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1299618704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1299615376"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1299615376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1299618704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZMAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.2195661918241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.4971453696552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.537331940563099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.532807787777401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.5295623032655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.554697799198198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.441797891217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.708050319749301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.6001345598231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.2007290034778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.985982454135598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0340983043621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.3384401576802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.369757284223599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.864554352089399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.913732067965199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.954999173207401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.728519347725499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.186753257480799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.592639157029801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.306903826680301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.068475885130798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.1338776583701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.239383914111698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD44-4F0F-8E1B-B863673BFA04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1147807360"/>
+        <c:axId val="1151465168"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Utility Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.8419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD44-4F0F-8E1B-B863673BFA04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1540497440"/>
+        <c:axId val="1307314944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1147807360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151465168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1151465168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147807360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1307314944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540497440"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1540497440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1307314944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZMAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.2195661918241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.4971453696552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.537331940563099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.532807787777401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.5295623032655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.554697799198198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.441797891217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.708050319749301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.6001345598231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.2007290034778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.985982454135598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.0340983043621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.3384401576802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.369757284223599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.864554352089399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.913732067965199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.954999173207401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.728519347725499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.186753257480799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.592639157029801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.306903826680301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.068475885130798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.1338776583701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.239383914111698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AA5-42CA-8015-8F1D6DCBB4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1384987824"/>
+        <c:axId val="1384985328"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rad Inlet Water Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10.955940650000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.82863611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9549375500000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.66421946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6746809099999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.44276773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.628795480000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5128709800000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2843048499999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2118141799999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6636489599999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.07851071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.58810025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.396843609999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3249616300000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.023081439999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.785747950000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.36980161</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.219486570000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.49074726</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.70972235</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.57761503</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3334103299999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1103909600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0AA5-42CA-8015-8F1D6DCBB4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1384983248"/>
+        <c:axId val="1384987825"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1384987824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1384985328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1384985328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1384987824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1384987825"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1384983248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1384983248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1384987825"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCM temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.7400699582542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.840324607010299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.885484842581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.899151109091001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.9147234022271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.9734363757055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.075348020112202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.7515024398995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.332864514543399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.958829916002902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.676950035753698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.279548308280599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.901092718283699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.851926768924201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.851780543976499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.806771172969199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.715829694806899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.544870896557001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.367596396690299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.185082282944499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.006691254666901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.852871555493401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.750828332511301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.743313991237699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F644-4672-86AC-F154133E70BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1656110576"/>
+        <c:axId val="1656107248"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCM state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F644-4672-86AC-F154133E70BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1427950992"/>
+        <c:axId val="1427951824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1656110576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656107248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1656107248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656110576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1427951824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427950992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1427950992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1427951824"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3770,6 +8111,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5319,6 +9860,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5910,16 +13031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>479424</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>269874</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>139699</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5946,16 +13067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>441324</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>298449</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5975,6 +13096,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587374</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2607780-2F37-495A-972A-E62D9EEFF826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3AB4747-9E5C-4F21-BFC1-AE4AE4A2CAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98424</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7169876B-F0A2-4F96-9573-676AE58CECC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>387351</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95085150-88F3-42EA-98AC-BDAEA0CCE1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A047B7-04C1-4EF6-8B5F-3D74395074CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6249,542 +13555,1224 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(B2=1,3.462,IF(B2=2,5.842,10.378))</f>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D2">
+        <v>10.955940650000001</v>
+      </c>
+      <c r="E2">
+        <v>14.826391490000001</v>
+      </c>
+      <c r="F2">
+        <v>15.07419398</v>
+      </c>
+      <c r="G2">
+        <v>8.7692019000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C25" si="0">IF(B3=1,3.462,IF(B3=2,5.842,10.378))</f>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D3">
+        <v>11.82863611</v>
+      </c>
+      <c r="E3">
+        <v>12.76805291</v>
+      </c>
+      <c r="F3">
+        <v>13.880479469999999</v>
+      </c>
+      <c r="G3">
+        <v>15.06300411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D4">
+        <v>8.9549375500000004</v>
+      </c>
+      <c r="E4">
+        <v>9.1092209799999999</v>
+      </c>
+      <c r="F4">
+        <v>17.208636859999999</v>
+      </c>
+      <c r="G4">
+        <v>11.62858567</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D5">
+        <v>7.66421946</v>
+      </c>
+      <c r="E5">
+        <v>13.908633910000001</v>
+      </c>
+      <c r="F5">
+        <v>12.81919516</v>
+      </c>
+      <c r="G5">
+        <v>10.574212559999999</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D6">
+        <v>8.6746809099999993</v>
+      </c>
+      <c r="E6">
+        <v>13.84592561</v>
+      </c>
+      <c r="F6">
+        <v>16.972287739999999</v>
+      </c>
+      <c r="G6">
+        <v>11.472614200000001</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D7">
+        <v>16.44276773</v>
+      </c>
+      <c r="E7">
+        <v>15.138182949999999</v>
+      </c>
+      <c r="F7">
+        <v>13.366898020000001</v>
+      </c>
+      <c r="G7">
+        <v>7.0280190899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D8">
+        <v>17.628795480000001</v>
+      </c>
+      <c r="E8">
+        <v>14.65839416</v>
+      </c>
+      <c r="F8">
+        <v>14.91133829</v>
+      </c>
+      <c r="G8">
+        <v>13.412322830000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D9">
+        <v>8.5128709800000006</v>
+      </c>
+      <c r="E9">
+        <v>12.33984937</v>
+      </c>
+      <c r="F9">
+        <v>13.471834619999999</v>
+      </c>
+      <c r="G9">
+        <v>10.191436960000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D10">
+        <v>7.2843048499999998</v>
+      </c>
+      <c r="E10">
+        <v>9.3628793199999993</v>
+      </c>
+      <c r="F10">
+        <v>16.523237349999999</v>
+      </c>
+      <c r="G10">
+        <v>14.338388739999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D11">
+        <v>9.2118141799999993</v>
+      </c>
+      <c r="E11">
+        <v>13.890543320000001</v>
+      </c>
+      <c r="F11">
+        <v>18.55381113</v>
+      </c>
+      <c r="G11">
+        <v>16.7656247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D12">
+        <v>8.6636489599999997</v>
+      </c>
+      <c r="E12">
+        <v>17.313256590000002</v>
+      </c>
+      <c r="F12">
+        <v>18.152110059999998</v>
+      </c>
+      <c r="G12">
+        <v>17.72421503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D13">
+        <v>10.07851071</v>
+      </c>
+      <c r="E13">
+        <v>9.8990291100000007</v>
+      </c>
+      <c r="F13">
+        <v>6.6825583000000002</v>
+      </c>
+      <c r="G13">
+        <v>16.187242950000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D14">
+        <v>13.58810025</v>
+      </c>
+      <c r="E14">
+        <v>17.193776880000001</v>
+      </c>
+      <c r="F14">
+        <v>8.3951925999999997</v>
+      </c>
+      <c r="G14">
+        <v>14.755030189999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D15">
+        <v>14.396843609999999</v>
+      </c>
+      <c r="E15">
+        <v>14.46367034</v>
+      </c>
+      <c r="F15">
+        <v>15.764586919999999</v>
+      </c>
+      <c r="G15">
+        <v>16.211772109999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D16">
+        <v>9.3249616300000007</v>
+      </c>
+      <c r="E16">
+        <v>13.3343062</v>
+      </c>
+      <c r="F16">
+        <v>15.75698394</v>
+      </c>
+      <c r="G16">
+        <v>7.3962043800000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>10.378</v>
+      </c>
+      <c r="D17">
+        <v>16.023081439999999</v>
+      </c>
+      <c r="E17">
+        <v>16.534126109999999</v>
+      </c>
+      <c r="F17">
+        <v>17.769747020000001</v>
+      </c>
+      <c r="G17">
+        <v>6.3942917399999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>10.378</v>
+      </c>
+      <c r="D18">
+        <v>16.785747950000001</v>
+      </c>
+      <c r="E18">
+        <v>7.7089253700000002</v>
+      </c>
+      <c r="F18">
+        <v>15.907488150000001</v>
+      </c>
+      <c r="G18">
+        <v>14.24224044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>10.378</v>
+      </c>
+      <c r="D19">
+        <v>16.36980161</v>
+      </c>
+      <c r="E19">
+        <v>14.083779890000001</v>
+      </c>
+      <c r="F19">
+        <v>9.0425067499999994</v>
+      </c>
+      <c r="G19">
+        <v>16.341818119999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>10.378</v>
+      </c>
+      <c r="D20">
+        <v>11.219486570000001</v>
+      </c>
+      <c r="E20">
+        <v>12.359064010000001</v>
+      </c>
+      <c r="F20">
+        <v>14.368461</v>
+      </c>
+      <c r="G20">
+        <v>13.21293202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>10.378</v>
+      </c>
+      <c r="D21">
+        <v>7.49074726</v>
+      </c>
+      <c r="E21">
+        <v>14.405972240000001</v>
+      </c>
+      <c r="F21">
+        <v>13.495779779999999</v>
+      </c>
+      <c r="G21">
+        <v>18.7770662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D22">
+        <v>17.70972235</v>
+      </c>
+      <c r="E22">
+        <v>10.77333514</v>
+      </c>
+      <c r="F22">
+        <v>15.71485122</v>
+      </c>
+      <c r="G22">
+        <v>9.7728442900000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="D23">
+        <v>14.57761503</v>
+      </c>
+      <c r="E23">
+        <v>14.374352569999999</v>
+      </c>
+      <c r="F23">
+        <v>8.9728576400000009</v>
+      </c>
+      <c r="G23">
+        <v>7.9416773699999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D24">
+        <v>9.3334103299999995</v>
+      </c>
+      <c r="E24">
+        <v>15.345818299999999</v>
+      </c>
+      <c r="F24">
+        <v>12.078505890000001</v>
+      </c>
+      <c r="G24">
+        <v>15.13251999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D25">
+        <v>9.1103909600000001</v>
+      </c>
+      <c r="E25">
+        <v>14.27514884</v>
+      </c>
+      <c r="F25">
+        <v>11.47679224</v>
+      </c>
+      <c r="G25">
+        <v>7.3773745699999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3BBBB6-B124-45A8-A256-E8033F2753CF}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="C2">
+        <v>21.2195661918241</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="E2">
+        <v>10.955940650000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>21.7400699582542</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>IF(B2=1,3.462,IF(B2=2,5.842,10.378))</f>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>3.4620000000000002</v>
       </c>
-      <c r="D2">
-        <v>10.955940650000001</v>
-      </c>
-      <c r="E2">
-        <v>14.826391490000001</v>
-      </c>
-      <c r="F2">
-        <v>15.07419398</v>
+      <c r="C3">
+        <v>21.4971453696552</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>11.82863611</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21.840324607010299</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C25" si="0">IF(B3=1,3.462,IF(B3=2,5.842,10.378))</f>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>3.4620000000000002</v>
       </c>
-      <c r="D3">
-        <v>11.82863611</v>
-      </c>
-      <c r="E3">
-        <v>12.76805291</v>
-      </c>
-      <c r="F3">
-        <v>13.880479469999999</v>
+      <c r="C4">
+        <v>21.537331940563099</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>8.9549375500000004</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>21.885484842581</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>3.4620000000000002</v>
       </c>
-      <c r="D4">
-        <v>8.9549375500000004</v>
-      </c>
-      <c r="E4">
-        <v>9.1092209799999999</v>
-      </c>
-      <c r="F4">
-        <v>17.208636859999999</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="C5">
+        <v>21.532807787777401</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7.66421946</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>21.899151109091001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="C6">
+        <v>21.5295623032655</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>8.6746809099999993</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>21.9147234022271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="C7">
+        <v>21.554697799198198</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>16.44276773</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>21.9734363757055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C8">
+        <v>21.441797891217</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>17.628795480000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>22.075348020112202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C9">
+        <v>21.708050319749301</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8.5128709800000006</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>22.7515024398995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C10">
+        <v>21.6001345598231</v>
+      </c>
+      <c r="D10">
+        <v>5664.42623853851</v>
+      </c>
+      <c r="E10">
+        <v>7.2843048499999998</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>24.332864514543399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C11">
+        <v>21.2007290034778</v>
+      </c>
+      <c r="D11">
+        <v>7664.4533020809604</v>
+      </c>
+      <c r="E11">
+        <v>9.2118141799999993</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>23.958829916002902</v>
+      </c>
+      <c r="I11" s="2">
+        <v>23.958829916002902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C12">
+        <v>20.985982454135598</v>
+      </c>
+      <c r="D12">
+        <v>8115.2285016776796</v>
+      </c>
+      <c r="E12">
+        <v>8.6636489599999997</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>23.676950035753698</v>
+      </c>
+      <c r="I12" s="2">
+        <v>23.876950035753701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C13">
+        <v>21.0340983043621</v>
+      </c>
+      <c r="D13">
+        <v>2325.7949258650401</v>
+      </c>
+      <c r="E13">
+        <v>10.07851071</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>23.279548308280599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C14">
+        <v>21.3384401576802</v>
+      </c>
+      <c r="D14">
+        <v>993.33744725327199</v>
+      </c>
+      <c r="E14">
+        <v>13.58810025</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>22.901092718283699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C15">
+        <v>21.369757284223599</v>
+      </c>
+      <c r="D15">
+        <v>9360.1043885549407</v>
+      </c>
+      <c r="E15">
+        <v>14.396843609999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>22.851926768924201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C16">
+        <v>20.864554352089399</v>
+      </c>
+      <c r="D16">
+        <v>8115.2285016776796</v>
+      </c>
+      <c r="E16">
+        <v>9.3249616300000007</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>22.851780543976499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
         <v>10.378</v>
       </c>
+      <c r="C17">
+        <v>22.913732067965199</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>16.023081439999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>22.806771172969199</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>10.378</v>
+      </c>
+      <c r="C18">
+        <v>22.954999173207401</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>16.785747950000001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>22.715829694806899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>10.378</v>
+      </c>
+      <c r="C19">
+        <v>22.728519347725499</v>
+      </c>
+      <c r="D19">
+        <v>6231.7938951084498</v>
+      </c>
+      <c r="E19">
+        <v>16.36980161</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>22.544870896557001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>10.378</v>
+      </c>
+      <c r="C20">
+        <v>22.186753257480799</v>
+      </c>
+      <c r="D20">
+        <v>7466.3684775962402</v>
+      </c>
+      <c r="E20">
+        <v>11.219486570000001</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>22.367596396690299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>10.378</v>
+      </c>
+      <c r="C21">
+        <v>21.592639157029801</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>7.49074726</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>22.185082282944499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C22">
+        <v>21.306903826680301</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>17.70972235</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>22.006691254666901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>5.8419999999999996</v>
+      </c>
+      <c r="C23">
+        <v>21.068475885130798</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>14.57761503</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>21.852871555493401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
         <v>3.4620000000000002</v>
       </c>
-      <c r="D5">
-        <v>7.66421946</v>
-      </c>
-      <c r="E5">
-        <v>13.908633910000001</v>
-      </c>
-      <c r="F5">
-        <v>12.81919516</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.8419999999999996</v>
+      <c r="C24">
+        <v>21.1338776583701</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9.3334103299999995</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>21.750828332511301</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
         <v>3.4620000000000002</v>
       </c>
-      <c r="D6">
-        <v>8.6746809099999993</v>
-      </c>
-      <c r="E6">
-        <v>13.84592561</v>
-      </c>
-      <c r="F6">
-        <v>16.972287739999999</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.4620000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>3.4620000000000002</v>
-      </c>
-      <c r="D7">
-        <v>16.44276773</v>
-      </c>
-      <c r="E7">
-        <v>15.138182949999999</v>
-      </c>
-      <c r="F7">
-        <v>13.366898020000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D8">
-        <v>17.628795480000001</v>
-      </c>
-      <c r="E8">
-        <v>14.65839416</v>
-      </c>
-      <c r="F8">
-        <v>14.91133829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D9">
-        <v>8.5128709800000006</v>
-      </c>
-      <c r="E9">
-        <v>12.33984937</v>
-      </c>
-      <c r="F9">
-        <v>13.471834619999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D10">
-        <v>7.2843048499999998</v>
-      </c>
-      <c r="E10">
-        <v>9.3628793199999993</v>
-      </c>
-      <c r="F10">
-        <v>16.523237349999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D11">
-        <v>9.2118141799999993</v>
-      </c>
-      <c r="E11">
-        <v>13.890543320000001</v>
-      </c>
-      <c r="F11">
-        <v>18.55381113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D12">
-        <v>8.6636489599999997</v>
-      </c>
-      <c r="E12">
-        <v>17.313256590000002</v>
-      </c>
-      <c r="F12">
-        <v>18.152110059999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D13">
-        <v>10.07851071</v>
-      </c>
-      <c r="E13">
-        <v>9.8990291100000007</v>
-      </c>
-      <c r="F13">
-        <v>6.6825583000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D14">
-        <v>13.58810025</v>
-      </c>
-      <c r="E14">
-        <v>17.193776880000001</v>
-      </c>
-      <c r="F14">
-        <v>8.3951925999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D15">
-        <v>14.396843609999999</v>
-      </c>
-      <c r="E15">
-        <v>14.46367034</v>
-      </c>
-      <c r="F15">
-        <v>15.764586919999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D16">
-        <v>9.3249616300000007</v>
-      </c>
-      <c r="E16">
-        <v>13.3343062</v>
-      </c>
-      <c r="F16">
-        <v>15.75698394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>10.378</v>
-      </c>
-      <c r="D17">
-        <v>16.023081439999999</v>
-      </c>
-      <c r="E17">
-        <v>16.534126109999999</v>
-      </c>
-      <c r="F17">
-        <v>17.769747020000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>10.378</v>
-      </c>
-      <c r="D18">
-        <v>16.785747950000001</v>
-      </c>
-      <c r="E18">
-        <v>7.7089253700000002</v>
-      </c>
-      <c r="F18">
-        <v>15.907488150000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>10.378</v>
-      </c>
-      <c r="D19">
-        <v>16.36980161</v>
-      </c>
-      <c r="E19">
-        <v>14.083779890000001</v>
-      </c>
-      <c r="F19">
-        <v>9.0425067499999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>10.378</v>
-      </c>
-      <c r="D20">
-        <v>11.219486570000001</v>
-      </c>
-      <c r="E20">
-        <v>12.359064010000001</v>
-      </c>
-      <c r="F20">
-        <v>14.368461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>10.378</v>
-      </c>
-      <c r="D21">
-        <v>7.49074726</v>
-      </c>
-      <c r="E21">
-        <v>14.405972240000001</v>
-      </c>
-      <c r="F21">
-        <v>13.495779779999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D22">
-        <v>17.70972235</v>
-      </c>
-      <c r="E22">
-        <v>10.77333514</v>
-      </c>
-      <c r="F22">
-        <v>15.71485122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>5.8419999999999996</v>
-      </c>
-      <c r="D23">
-        <v>14.57761503</v>
-      </c>
-      <c r="E23">
-        <v>14.374352569999999</v>
-      </c>
-      <c r="F23">
-        <v>8.9728576400000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>3.4620000000000002</v>
-      </c>
-      <c r="D24">
-        <v>9.3334103299999995</v>
-      </c>
-      <c r="E24">
-        <v>15.345818299999999</v>
-      </c>
-      <c r="F24">
-        <v>12.078505890000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>3.4620000000000002</v>
+        <v>21.239383914111698</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>9.1103909600000001</v>
       </c>
-      <c r="E25">
-        <v>14.27514884</v>
-      </c>
-      <c r="F25">
-        <v>11.47679224</v>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>21.743313991237699</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsAna.xlsx
+++ b/ResultsAna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEADEBB-77EE-4D38-B0AF-D8F3DDE253D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364AC63-8BFA-453E-A68A-D9126D09DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -964,7 +964,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1080,7 +1080,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1171,7 +1171,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1287,7 +1287,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:f>Sheet1!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1853,7 +1853,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1969,7 +1969,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2060,7 +2060,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2176,7 +2176,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:f>Sheet1!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2267,7 +2267,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2383,7 +2383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$25</c:f>
+              <c:f>Sheet1!$G$2:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2742,7 +2742,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2858,7 +2858,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3501,7 +3501,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3617,7 +3617,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:f>Sheet1!$F$2:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -7866,6 +7866,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1427951824"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -12965,7 +12966,7 @@
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -12995,13 +12996,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>136526</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
@@ -13031,13 +13032,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>269874</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -13067,13 +13068,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
@@ -13552,19 +13553,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" style="2"/>
+    <col min="5" max="5" width="25.07421875" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -13574,20 +13576,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13598,20 +13600,23 @@
         <f>IF(B2=1,3.462,IF(B2=2,5.842,10.378))</f>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>10.955940650000001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>14.826391490000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15.07419398</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8.7692019000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13622,20 +13627,23 @@
         <f t="shared" ref="C3:C25" si="0">IF(B3=1,3.462,IF(B3=2,5.842,10.378))</f>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>11.82863611</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>12.76805291</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>13.880479469999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>15.06300411</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13646,21 +13654,24 @@
         <f t="shared" si="0"/>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>8.9549375500000004</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9.1092209799999999</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>17.208636859999999</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>11.62858567</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13671,21 +13682,24 @@
         <f t="shared" si="0"/>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="E5">
         <v>7.66421946</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>13.908633910000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12.81919516</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10.574212559999999</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13696,21 +13710,24 @@
         <f t="shared" si="0"/>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>8.6746809099999993</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>13.84592561</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>16.972287739999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>11.472614200000001</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13721,20 +13738,23 @@
         <f t="shared" si="0"/>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7">
         <v>16.44276773</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15.138182949999999</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13.366898020000001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7.0280190899999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13745,20 +13765,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>17.628795480000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>14.65839416</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>14.91133829</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>13.412322830000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13769,20 +13792,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>8.5128709800000006</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>12.33984937</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>13.471834619999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10.191436960000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13793,20 +13819,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>7.2843048499999998</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9.3628793199999993</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16.523237349999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>14.338388739999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13817,20 +13846,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>9.2118141799999993</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>13.890543320000001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>18.55381113</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>16.7656247</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13841,20 +13873,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>8.6636489599999997</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>17.313256590000002</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>18.152110059999998</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>17.72421503</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13865,20 +13900,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13">
         <v>10.07851071</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9.8990291100000007</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6.6825583000000002</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>16.187242950000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13889,20 +13927,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>13.58810025</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>17.193776880000001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>8.3951925999999997</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>14.755030189999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13913,20 +13954,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
+        <v>15</v>
+      </c>
+      <c r="E15">
         <v>14.396843609999999</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14.46367034</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>15.764586919999999</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>16.211772109999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13937,20 +13981,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>9.3249616300000007</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>13.3343062</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>15.75698394</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>7.3962043800000004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13961,20 +14008,23 @@
         <f t="shared" si="0"/>
         <v>10.378</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>16.023081439999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16.534126109999999</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>17.769747020000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>6.3942917399999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13985,20 +14035,23 @@
         <f t="shared" si="0"/>
         <v>10.378</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
+        <v>12</v>
+      </c>
+      <c r="E18">
         <v>16.785747950000001</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7.7089253700000002</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15.907488150000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>14.24224044</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14009,20 +14062,23 @@
         <f t="shared" si="0"/>
         <v>10.378</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
+        <v>12</v>
+      </c>
+      <c r="E19">
         <v>16.36980161</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>14.083779890000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9.0425067499999994</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>16.341818119999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14033,20 +14089,23 @@
         <f t="shared" si="0"/>
         <v>10.378</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
+        <v>12</v>
+      </c>
+      <c r="E20">
         <v>11.219486570000001</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12.359064010000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>14.368461</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>13.21293202</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14057,20 +14116,23 @@
         <f t="shared" si="0"/>
         <v>10.378</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21">
         <v>7.49074726</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>14.405972240000001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>13.495779779999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>18.7770662</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14081,20 +14143,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
+        <v>12</v>
+      </c>
+      <c r="E22">
         <v>17.70972235</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10.77333514</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>15.71485122</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9.7728442900000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14105,20 +14170,23 @@
         <f t="shared" si="0"/>
         <v>5.8419999999999996</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23">
         <v>14.57761503</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>14.374352569999999</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8.9728576400000009</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>7.9416773699999998</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14129,20 +14197,23 @@
         <f t="shared" si="0"/>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24">
         <v>9.3334103299999995</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>15.345818299999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>12.078505890000001</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>15.13251999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14153,16 +14224,19 @@
         <f t="shared" si="0"/>
         <v>3.4620000000000002</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25">
         <v>9.1103909600000001</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>14.27514884</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>11.47679224</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>7.3773745699999997</v>
       </c>
     </row>
@@ -14180,9 +14254,9 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -14211,7 +14285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -14240,7 +14314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -14263,7 +14337,7 @@
         <v>21.840324607010299</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -14286,7 +14360,7 @@
         <v>21.885484842581</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -14309,7 +14383,7 @@
         <v>21.899151109091001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -14332,7 +14406,7 @@
         <v>21.9147234022271</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -14355,7 +14429,7 @@
         <v>21.9734363757055</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -14378,7 +14452,7 @@
         <v>22.075348020112202</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -14401,7 +14475,7 @@
         <v>22.7515024398995</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -14424,7 +14498,7 @@
         <v>24.332864514543399</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -14450,7 +14524,7 @@
         <v>23.958829916002902</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -14476,7 +14550,7 @@
         <v>23.876950035753701</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14499,7 +14573,7 @@
         <v>23.279548308280599</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -14522,7 +14596,7 @@
         <v>22.901092718283699</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -14545,7 +14619,7 @@
         <v>22.851926768924201</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -14568,7 +14642,7 @@
         <v>22.851780543976499</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -14591,7 +14665,7 @@
         <v>22.806771172969199</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -14614,7 +14688,7 @@
         <v>22.715829694806899</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -14637,7 +14711,7 @@
         <v>22.544870896557001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -14660,7 +14734,7 @@
         <v>22.367596396690299</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -14683,7 +14757,7 @@
         <v>22.185082282944499</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -14706,7 +14780,7 @@
         <v>22.006691254666901</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -14729,7 +14803,7 @@
         <v>21.852871555493401</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14752,7 +14826,7 @@
         <v>21.750828332511301</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>29</v>
       </c>

--- a/ResultsAna.xlsx
+++ b/ResultsAna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fengf\OneDrive - tongji.edu.cn\TAMU\1_projects\DOE project\Model\OptimizationFramework\GithubRepo\OptimizationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364AC63-8BFA-453E-A68A-D9126D09DBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDC135C-8319-41C2-B1D1-CBD381EF8177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Case1_400</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Melting</t>
+  </si>
+  <si>
+    <t>res</t>
   </si>
 </sst>
 </file>
@@ -1591,6 +1594,731 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCM temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.7400699582542</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.840324607010299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.885484842581</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.899151109091001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.9147234022271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.9734363757055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.075348020112202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.7515024398995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.332864514543399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.958829916002902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.676950035753698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.279548308280599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.901092718283699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.851926768924201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.851780543976499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.806771172969199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.715829694806899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.544870896557001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.367596396690299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.185082282944499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.006691254666901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.852871555493401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.750828332511301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.743313991237699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F644-4672-86AC-F154133E70BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1656110576"/>
+        <c:axId val="1656107248"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCM state</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v> 06/01  01:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 06/01  02:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 06/01  03:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 06/01  04:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 06/01  05:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 06/01  06:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 06/01  07:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 06/01  08:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 06/01  09:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 06/01  10:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 06/01  11:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 06/01  12:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 06/01  13:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 06/01  14:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 06/01  15:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 06/01  16:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 06/01  17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 06/01  18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 06/01  19:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 06/01  20:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 06/01  21:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 06/01  22:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 06/01  23:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v> 06/01  24:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F644-4672-86AC-F154133E70BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1427950992"/>
+        <c:axId val="1427951824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1656110576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656107248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1656107248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656110576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1427951824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1427950992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1427950992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1427951824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4260,6 +4988,761 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12.08140391</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.6599799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.44420588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4216763599999993</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>11.003629500000001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>12.3749146</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>11.525263389999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>11.22739816</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>11.133973299999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>11.48165659</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>10.03331946</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>13.741262259999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>13.59568018</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>15.49572802</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>15.05161116</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>12.96356984</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>10.92872131</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>13.301954390000001</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>10.772066110000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>13.037333200000001</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>10.29512933</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>12.115875340000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8859-45B5-A297-36A411C5C105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="816725471"/>
+        <c:axId val="816743359"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Urates_Period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8859-45B5-A297-36A411C5C105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="816725055"/>
+        <c:axId val="816724223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="816725471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816743359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="816743359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816725471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="816724223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816725055"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="816725055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="816724223"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4960,7 +6443,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5715,7 +7198,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6470,7 +7953,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7227,732 +8710,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCM temp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v> 06/01  01:00:00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> 06/01  02:00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> 06/01  03:00:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> 06/01  04:00:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> 06/01  05:00:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> 06/01  06:00:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> 06/01  07:00:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> 06/01  08:00:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> 06/01  09:00:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> 06/01  10:00:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> 06/01  11:00:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> 06/01  12:00:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> 06/01  13:00:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> 06/01  14:00:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> 06/01  15:00:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> 06/01  16:00:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> 06/01  17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> 06/01  18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> 06/01  19:00:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> 06/01  20:00:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> 06/01  21:00:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v> 06/01  22:00:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v> 06/01  23:00:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v> 06/01  24:00:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$H$2:$H$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>21.7400699582542</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.840324607010299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.885484842581</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.899151109091001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.9147234022271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21.9734363757055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.075348020112202</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22.7515024398995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.332864514543399</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.958829916002902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.676950035753698</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.279548308280599</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.901092718283699</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.851926768924201</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.851780543976499</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.806771172969199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.715829694806899</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.544870896557001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.367596396690299</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.185082282944499</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.006691254666901</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.852871555493401</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.750828332511301</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.743313991237699</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F644-4672-86AC-F154133E70BA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1656110576"/>
-        <c:axId val="1656107248"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PCM state</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v> 06/01  01:00:00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v> 06/01  02:00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v> 06/01  03:00:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v> 06/01  04:00:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v> 06/01  05:00:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> 06/01  06:00:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> 06/01  07:00:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> 06/01  08:00:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> 06/01  09:00:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> 06/01  10:00:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> 06/01  11:00:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> 06/01  12:00:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> 06/01  13:00:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> 06/01  14:00:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> 06/01  15:00:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> 06/01  16:00:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> 06/01  17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> 06/01  18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> 06/01  19:00:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> 06/01  20:00:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> 06/01  21:00:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v> 06/01  22:00:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v> 06/01  23:00:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v> 06/01  24:00:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$G$2:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F644-4672-86AC-F154133E70BA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1427950992"/>
-        <c:axId val="1427951824"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1656110576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="24"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1656107248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1656107248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1656110576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1427951824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="-1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1427950992"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1427950992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1427951824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8828,6 +9626,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -13097,6 +14411,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>146956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>329292</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F8ABEC-3C0F-4353-AAE2-09D9C3767E82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13556,7 +14906,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I2" activeCellId="1" sqref="A1:B25 I2:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -13588,6 +14938,9 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
@@ -13615,6 +14968,9 @@
       <c r="H2">
         <v>8.7692019000000005</v>
       </c>
+      <c r="I2">
+        <v>12.081403910000001</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -13642,6 +14998,9 @@
       <c r="H3">
         <v>15.06300411</v>
       </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -13669,7 +15028,9 @@
       <c r="H4">
         <v>11.62858567</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>11.6599799</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -13697,7 +15058,9 @@
       <c r="H5">
         <v>10.574212559999999</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>12.44420588</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -13725,7 +15088,9 @@
       <c r="H6">
         <v>11.472614200000001</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>9.4216763599999993</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -13753,6 +15118,9 @@
       <c r="H7">
         <v>7.0280190899999999</v>
       </c>
+      <c r="I7">
+        <v>11.003629500000001</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
@@ -13780,6 +15148,9 @@
       <c r="H8">
         <v>13.412322830000001</v>
       </c>
+      <c r="I8">
+        <v>12.3749146</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
@@ -13807,6 +15178,9 @@
       <c r="H9">
         <v>10.191436960000001</v>
       </c>
+      <c r="I9">
+        <v>11.525263389999999</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -13834,6 +15208,9 @@
       <c r="H10">
         <v>14.338388739999999</v>
       </c>
+      <c r="I10">
+        <v>11.22739816</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
@@ -13861,6 +15238,9 @@
       <c r="H11">
         <v>16.7656247</v>
       </c>
+      <c r="I11">
+        <v>11.133973299999999</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -13888,6 +15268,9 @@
       <c r="H12">
         <v>17.72421503</v>
       </c>
+      <c r="I12">
+        <v>11.48165659</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -13915,6 +15298,9 @@
       <c r="H13">
         <v>16.187242950000002</v>
       </c>
+      <c r="I13">
+        <v>10.03331946</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
@@ -13942,6 +15328,9 @@
       <c r="H14">
         <v>14.755030189999999</v>
       </c>
+      <c r="I14">
+        <v>13.741262259999999</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
@@ -13969,6 +15358,9 @@
       <c r="H15">
         <v>16.211772109999998</v>
       </c>
+      <c r="I15">
+        <v>13.59568018</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
@@ -13996,8 +15388,11 @@
       <c r="H16">
         <v>7.3962043800000004</v>
       </c>
+      <c r="I16">
+        <v>15.49572802</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14023,8 +15418,11 @@
       <c r="H17">
         <v>6.3942917399999999</v>
       </c>
+      <c r="I17">
+        <v>15.05161116</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14050,8 +15448,11 @@
       <c r="H18">
         <v>14.24224044</v>
       </c>
+      <c r="I18">
+        <v>12.96356984</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14077,8 +15478,11 @@
       <c r="H19">
         <v>16.341818119999999</v>
       </c>
+      <c r="I19">
+        <v>10.92872131</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14104,8 +15508,11 @@
       <c r="H20">
         <v>13.21293202</v>
       </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14131,8 +15538,11 @@
       <c r="H21">
         <v>18.7770662</v>
       </c>
+      <c r="I21">
+        <v>13.301954390000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14158,8 +15568,11 @@
       <c r="H22">
         <v>9.7728442900000001</v>
       </c>
+      <c r="I22">
+        <v>10.772066110000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14185,8 +15598,11 @@
       <c r="H23">
         <v>7.9416773699999998</v>
       </c>
+      <c r="I23">
+        <v>13.037333200000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14212,8 +15628,11 @@
       <c r="H24">
         <v>15.13251999</v>
       </c>
+      <c r="I24">
+        <v>10.29512933</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14238,6 +15657,9 @@
       </c>
       <c r="H25">
         <v>7.3773745699999997</v>
+      </c>
+      <c r="I25">
+        <v>12.115875340000001</v>
       </c>
     </row>
   </sheetData>
